--- a/additionalFiles/w11.xlsx
+++ b/additionalFiles/w11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\year2\sem2\CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\year 2\sem2\co\PROJECT here\benchmarkProject\additionalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E3BED2-1CC9-41E5-85A6-61E12FAC9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36F46FB-8401-4249-B4CB-3BFCC0D43586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1150" windowWidth="34660" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,37 +199,24 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$11</c:f>
               <c:numCache>
@@ -264,8 +251,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$3:$G$11</c:f>
               <c:numCache>
@@ -300,8 +287,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A0D-4106-816C-F84ACD9F4745}"/>
@@ -316,10 +302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1336878336"/>
         <c:axId val="1336884576"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="1336878336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -434,8 +421,11 @@
         </c:txPr>
         <c:crossAx val="1336884576"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1336884576"/>
         <c:scaling>
@@ -559,7 +549,7 @@
         </c:txPr>
         <c:crossAx val="1336878336"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2460,19 +2450,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="5.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2520,7 +2510,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -2545,7 +2535,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>16</v>
       </c>
@@ -2570,7 +2560,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>64</v>
       </c>
@@ -2595,7 +2585,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>256</v>
       </c>
@@ -2620,7 +2610,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1024</v>
       </c>
@@ -2645,7 +2635,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4096</v>
       </c>
@@ -2670,7 +2660,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>16384</v>
       </c>
@@ -2695,7 +2685,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>65536</v>
       </c>
@@ -2720,7 +2710,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +2734,7 @@
         <v>211.57599999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2767,7 +2757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -2792,7 +2782,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2817,7 +2807,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>100</v>
       </c>
@@ -2842,7 +2832,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1000</v>
       </c>
@@ -2867,7 +2857,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
